--- a/Documentation/package.xlsx
+++ b/Documentation/package.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PP\Documents\Projects\ChatApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PP\Documents\Projects\ChatApplication\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783E6D75-2EF9-44D6-B2DB-C4D1B98E0664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA001BDB-1960-4B1A-BD70-ED591EBB61EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F7677943-12F6-42FE-90B7-A662DC9E837E}"/>
+    <workbookView xWindow="38295" yWindow="-3675" windowWidth="16410" windowHeight="11295" xr2:uid="{F7677943-12F6-42FE-90B7-A662DC9E837E}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Message length</t>
   </si>
@@ -57,6 +57,78 @@
     <t>password length</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>username length</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Passwod</t>
+  </si>
+  <si>
+    <t>N LENGTH</t>
+  </si>
+  <si>
+    <t>E LENGTH</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SIGNATURE_KEY_REQUEST</t>
+  </si>
+  <si>
+    <t>PUBLIC_KEY_REQUEST</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>length</t>
+    </r>
+  </si>
+  <si>
     <t>username</t>
   </si>
 </sst>
@@ -64,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +153,42 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -150,20 +248,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,17 +388,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,316 +723,1435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E25939-E7D4-41AC-9B4D-E2D9C12D7AC1}">
-  <dimension ref="L3:AE16"/>
+  <dimension ref="J2:AE47"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O3" s="1" t="s">
+    <row r="2" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="O2" s="27">
+        <v>15</v>
+      </c>
+      <c r="P2" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>13</v>
+      </c>
+      <c r="R2" s="27">
+        <v>12</v>
+      </c>
+      <c r="S2" s="27">
+        <v>11</v>
+      </c>
+      <c r="T2" s="27">
+        <v>10</v>
+      </c>
+      <c r="U2" s="27">
+        <v>9</v>
+      </c>
+      <c r="V2" s="27">
+        <v>8</v>
+      </c>
+      <c r="W2" s="27">
+        <v>7</v>
+      </c>
+      <c r="X2" s="27">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="27">
         <v>1</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="AD2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="2" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="1" t="s">
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-    </row>
-    <row r="4" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1">
         <v>0</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="1">
         <v>0</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O5" s="1" t="s">
+    <row r="5" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="28">
+        <v>25</v>
+      </c>
+      <c r="V5" s="28">
+        <v>24</v>
+      </c>
+      <c r="W5" s="28">
+        <v>23</v>
+      </c>
+      <c r="X5" s="28">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="27">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="27">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>17</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="32"/>
+    </row>
+    <row r="9" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-    </row>
-    <row r="7" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O7" s="1" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
+    </row>
+    <row r="12" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="O12" s="27">
+        <v>15</v>
+      </c>
+      <c r="P12" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>13</v>
+      </c>
+      <c r="R12" s="27">
+        <v>12</v>
+      </c>
+      <c r="S12" s="27">
+        <v>11</v>
+      </c>
+      <c r="T12" s="27">
+        <v>10</v>
+      </c>
+      <c r="U12" s="27">
+        <v>9</v>
+      </c>
+      <c r="V12" s="27">
+        <v>8</v>
+      </c>
+      <c r="W12" s="27">
+        <v>7</v>
+      </c>
+      <c r="X12" s="27">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="27">
         <v>5</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-    </row>
-    <row r="8" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-    </row>
-    <row r="10" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O10" s="1" t="s">
+      <c r="Z12" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="27">
         <v>1</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
+      <c r="AD12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="2" t="s">
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="1" t="s">
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-    </row>
-    <row r="11" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1">
         <v>1</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O12" s="5" t="s">
+    <row r="15" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="27">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>19</v>
+      </c>
+      <c r="AB15" s="27">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>17</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="18"/>
+    </row>
+    <row r="18" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="5" t="s">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="23" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O23" s="27">
+        <v>15</v>
+      </c>
+      <c r="P23" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>13</v>
+      </c>
+      <c r="R23" s="27">
+        <v>12</v>
+      </c>
+      <c r="S23" s="27">
+        <v>11</v>
+      </c>
+      <c r="T23" s="27">
+        <v>10</v>
+      </c>
+      <c r="U23" s="27">
+        <v>9</v>
+      </c>
+      <c r="V23" s="27">
+        <v>8</v>
+      </c>
+      <c r="W23" s="27">
         <v>7</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="8" t="s">
+      <c r="X23" s="27">
         <v>6</v>
       </c>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="10"/>
-    </row>
-    <row r="13" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="11"/>
-    </row>
-    <row r="15" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="11"/>
-    </row>
-    <row r="16" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
+      <c r="Y23" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+    </row>
+    <row r="25" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="27">
+        <v>31</v>
+      </c>
+      <c r="P26" s="27">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>29</v>
+      </c>
+      <c r="R26" s="27">
+        <v>28</v>
+      </c>
+      <c r="S26" s="27">
+        <v>27</v>
+      </c>
+      <c r="T26" s="27">
+        <v>26</v>
+      </c>
+      <c r="U26" s="27">
+        <v>25</v>
+      </c>
+      <c r="V26" s="27">
+        <v>24</v>
+      </c>
+      <c r="W26" s="27">
+        <v>23</v>
+      </c>
+      <c r="X26" s="27">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="27">
+        <v>20</v>
+      </c>
+      <c r="AA26" s="27">
+        <v>19</v>
+      </c>
+      <c r="AB26" s="27">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="27">
+        <v>17</v>
+      </c>
+      <c r="AD26" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="33">
+        <v>37</v>
+      </c>
+      <c r="Z29" s="33">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="33">
+        <v>35</v>
+      </c>
+      <c r="AB29" s="28">
+        <v>34</v>
+      </c>
+      <c r="AC29" s="28">
+        <v>33</v>
+      </c>
+      <c r="AD29" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+    </row>
+    <row r="31" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="32"/>
+    </row>
+    <row r="33" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+    </row>
+    <row r="34" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+    </row>
+    <row r="36" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="O36" s="27">
+        <v>15</v>
+      </c>
+      <c r="P36" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="27">
+        <v>13</v>
+      </c>
+      <c r="R36" s="27">
+        <v>12</v>
+      </c>
+      <c r="S36" s="27">
+        <v>11</v>
+      </c>
+      <c r="T36" s="27">
+        <v>10</v>
+      </c>
+      <c r="U36" s="27">
+        <v>9</v>
+      </c>
+      <c r="V36" s="27">
+        <v>8</v>
+      </c>
+      <c r="W36" s="27">
+        <v>7</v>
+      </c>
+      <c r="X36" s="27">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+    </row>
+    <row r="38" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="27">
+        <v>31</v>
+      </c>
+      <c r="P39" s="27">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>29</v>
+      </c>
+      <c r="R39" s="27">
+        <v>28</v>
+      </c>
+      <c r="S39" s="27">
+        <v>27</v>
+      </c>
+      <c r="T39" s="27">
+        <v>26</v>
+      </c>
+      <c r="U39" s="27">
+        <v>25</v>
+      </c>
+      <c r="V39" s="27">
+        <v>24</v>
+      </c>
+      <c r="W39" s="27">
+        <v>23</v>
+      </c>
+      <c r="X39" s="27">
+        <v>22</v>
+      </c>
+      <c r="Y39" s="27">
+        <v>21</v>
+      </c>
+      <c r="Z39" s="27">
+        <v>20</v>
+      </c>
+      <c r="AA39" s="27">
+        <v>19</v>
+      </c>
+      <c r="AB39" s="27">
+        <v>18</v>
+      </c>
+      <c r="AC39" s="27">
+        <v>17</v>
+      </c>
+      <c r="AD39" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="5"/>
+    </row>
+    <row r="41" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="33">
+        <v>37</v>
+      </c>
+      <c r="Z42" s="33">
+        <v>36</v>
+      </c>
+      <c r="AA42" s="33">
+        <v>35</v>
+      </c>
+      <c r="AB42" s="28">
+        <v>34</v>
+      </c>
+      <c r="AC42" s="28">
+        <v>33</v>
+      </c>
+      <c r="AD42" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+    </row>
+    <row r="44" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="32"/>
+    </row>
+    <row r="46" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+    </row>
+    <row r="47" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="O13:X13"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="O12:X12"/>
+  <mergeCells count="74">
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="O10:V10"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="O47:AD47"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="J37:N47"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="O45:AD45"/>
+    <mergeCell ref="O46:AD46"/>
+    <mergeCell ref="O8:AD8"/>
+    <mergeCell ref="O15:X15"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="O16:X16"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="J3:N10"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="O20:AD20"/>
+    <mergeCell ref="O21:AD21"/>
+    <mergeCell ref="J13:N21"/>
+    <mergeCell ref="J24:N34"/>
     <mergeCell ref="O3:S3"/>
-    <mergeCell ref="O5:AD5"/>
-    <mergeCell ref="O6:AD6"/>
-    <mergeCell ref="O7:AD7"/>
-    <mergeCell ref="O8:AD8"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AD17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="O18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
